--- a/cifar10/CIFAR-10.xlsx
+++ b/cifar10/CIFAR-10.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="28710" windowHeight="12150" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="28710" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="8" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$19:$H$49</definedName>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="142">
   <si>
     <t xml:space="preserve">CIFAR -10 </t>
   </si>
@@ -664,34 +666,211 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>def string_input_producer(string_tensor,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          num_epochs=None,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          shuffle=True,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          seed=None,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          capacity=32,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          shared_name=None,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          name=None,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          cancel_op=None):</t>
+  </si>
+  <si>
+    <t>Queue Runner 안은  Thread 를 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cifar10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cifar10_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distorted_inputs</t>
+  </si>
+  <si>
+    <t>read_cifar10</t>
+  </si>
+  <si>
+    <t>string_input_producer</t>
+  </si>
+  <si>
+    <t>filename_queue</t>
+  </si>
+  <si>
     <t xml:space="preserve">    filename_queue = tf.train.string_input_producer(filenames)</t>
-  </si>
-  <si>
-    <t>def string_input_producer(string_tensor,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          num_epochs=None,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          shuffle=True,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          seed=None,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          capacity=32,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          shared_name=None,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          name=None,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          cancel_op=None):</t>
-  </si>
-  <si>
-    <t>Queue Runner 안은  Thread 를 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운 받은 경로의 파일을 Thread로  Read 하기위해 filename_queue로 만듬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일을 읽고 8비트 이미지로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라벨분리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth_major ?  Transpose  변환처리 확인 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본이미지 형태의 CIFAR10record  객체로 리턴 변경 32 * 32 *3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일이 최초 적재 되어 있는 모형은 ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>읽어 오고 처음 변환은  3 * 32* 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실제 이미지로 변환 32 * 32 * 3 으로 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다차원에 대한 이해가 부족   일단 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transpose</t>
+  </si>
+  <si>
+    <t>strided_slice</t>
+  </si>
+  <si>
+    <t>reshape</t>
+  </si>
+  <si>
+    <t>24 * 24 * 3 이미지로 자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_flip_left_right</t>
+  </si>
+  <si>
+    <t>random_brightness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌우 뒤집기 , 좌우 반전이 없기도 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">밝기와 콘트라스를 랜덤하게 변경   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_contrast</t>
+  </si>
+  <si>
+    <t>per_image_standardization</t>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffle image , label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128 * 24 * 24 * 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cifar10_train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train()</t>
+  </si>
+  <si>
+    <t>cifar10.distorted_inputs()</t>
+  </si>
+  <si>
+    <t>images, labels</t>
+  </si>
+  <si>
+    <t>random_crop(value, size, seed=None, name=None):</t>
+  </si>
+  <si>
+    <t>random_crop(value, size, seed=None, name=None):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>이미지를 원하는 형태로 자른다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본 이미지 tensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변화할 사이즈 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random 이기 때문에 seed 사용가능 default None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32*32*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24*24*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_flip_left_right(image, seed=None):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>이미지 tensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 좌우 변경처리
+좌우 변경이 없기도 함.??</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +968,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -844,8 +1023,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -905,13 +1090,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,6 +1214,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,6 +1308,58 @@
         <a:xfrm>
           <a:off x="8801100" y="504825"/>
           <a:ext cx="9039225" cy="3943350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9458325" cy="7429500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1339,12 +1664,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="I2" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="I3" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="I4" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="N6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="N7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="19"/>
+      <c r="C8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="N8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="19"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="19"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="19"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="19"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="19"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="19"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="19"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="19"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="19"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="19"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="19"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="19"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="19"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="19"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="19"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="19"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="19"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="19"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="19"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="19"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="19"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="19"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="19"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="19"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="19"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="19"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="19"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="19"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1357,8 +2080,8 @@
   </sheetPr>
   <dimension ref="A3:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3095,8 +3818,8 @@
   </sheetPr>
   <dimension ref="C3:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3122,52 +3845,52 @@
         <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="3:11">
       <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" t="s">
         <v>84</v>
-      </c>
-      <c r="I8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="3:11">
       <c r="I9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="3:11">
       <c r="I10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="3:11">
       <c r="I11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="3:11">
       <c r="I12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="3:11">
       <c r="I13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="3:11">
       <c r="I14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="3:11">
       <c r="I15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="9:9">
@@ -3179,4 +3902,189 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D6:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:10">
+      <c r="D6" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
+    </row>
+    <row r="7" spans="4:10">
+      <c r="D7" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
+    </row>
+    <row r="8" spans="4:10">
+      <c r="D8" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10">
+      <c r="D9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10">
+      <c r="D10" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="4:10">
+      <c r="D11" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="14" spans="4:10" ht="33" customHeight="1">
+      <c r="D14" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="4:10">
+      <c r="D15" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="4:10">
+      <c r="D16" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>